--- a/tables/cor.xlsx
+++ b/tables/cor.xlsx
@@ -419,7 +419,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.023</v>
+        <v>0.453</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
@@ -428,7 +428,7 @@
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2" t="n">
-        <v>97</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -440,7 +440,7 @@
       </c>
       <c r="C3"/>
       <c r="D3" t="n">
-        <v>0.426</v>
+        <v>0.259</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -448,7 +448,7 @@
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
@@ -459,17 +459,17 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.605</v>
+        <v>0.343</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I4" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="J4"/>
     </row>
@@ -482,16 +482,16 @@
       </c>
       <c r="C5"/>
       <c r="D5" t="n">
-        <v>0.059</v>
+        <v>0.135</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I5" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="J5"/>
     </row>
@@ -503,11 +503,11 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.182</v>
+        <v>0.401</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="n">
-        <v>0.694</v>
+        <v>0.606</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -518,7 +518,7 @@
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6" t="n">
-        <v>84</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
@@ -530,10 +530,10 @@
       </c>
       <c r="C7"/>
       <c r="D7" t="n">
-        <v>0.25</v>
+        <v>0.843</v>
       </c>
       <c r="E7" t="n">
-        <v>0.624</v>
+        <v>0.553</v>
       </c>
       <c r="F7" t="n">
         <v>0.54</v>
@@ -544,7 +544,7 @@
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7" t="n">
-        <v>44</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/tables/cor.xlsx
+++ b/tables/cor.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">all_info_expected</t>
   </si>
@@ -20,6 +20,12 @@
     <t xml:space="preserve">study_id</t>
   </si>
   <si>
+    <t xml:space="preserve">natural_es</t>
+  </si>
+  <si>
+    <t xml:space="preserve">converted_es</t>
+  </si>
+  <si>
     <t xml:space="preserve">pearson_r</t>
   </si>
   <si>
@@ -42,6 +48,12 @@
   </si>
   <si>
     <t xml:space="preserve">n_sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R+Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D+G+OR</t>
   </si>
   <si>
     <t xml:space="preserve">sd</t>
@@ -410,141 +422,183 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.453</v>
-      </c>
-      <c r="D2"/>
-      <c r="E2"/>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.899</v>
+      </c>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
-      <c r="J2" t="n">
-        <v>39</v>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="C3"/>
-      <c r="D3" t="n">
-        <v>0.259</v>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
       </c>
       <c r="E3"/>
-      <c r="F3"/>
+      <c r="F3" t="n">
+        <v>0.625</v>
+      </c>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
-      <c r="J3" t="n">
-        <v>43</v>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.343</v>
-      </c>
-      <c r="D4"/>
-      <c r="E4"/>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.29</v>
+      </c>
       <c r="F4"/>
       <c r="G4"/>
-      <c r="H4" t="n">
-        <v>23</v>
-      </c>
-      <c r="I4" t="n">
-        <v>100</v>
-      </c>
-      <c r="J4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4" t="n">
+        <v>65</v>
+      </c>
+      <c r="K4" t="n">
+        <v>73</v>
+      </c>
+      <c r="L4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="C5"/>
-      <c r="D5" t="n">
-        <v>0.135</v>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
       </c>
       <c r="E5"/>
-      <c r="F5"/>
+      <c r="F5" t="n">
+        <v>0.394</v>
+      </c>
       <c r="G5"/>
-      <c r="H5" t="n">
-        <v>83</v>
-      </c>
-      <c r="I5" t="n">
-        <v>93</v>
-      </c>
-      <c r="J5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5" t="n">
+        <v>31</v>
+      </c>
+      <c r="K5" t="n">
+        <v>87</v>
+      </c>
+      <c r="L5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.401</v>
-      </c>
-      <c r="D6"/>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
       <c r="E6" t="n">
-        <v>0.606</v>
-      </c>
-      <c r="F6" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6" t="n">
-        <v>37</v>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
-      <c r="C7"/>
-      <c r="D7" t="n">
-        <v>0.843</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.553</v>
-      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7"/>
       <c r="F7" t="n">
+        <v>0.763</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.54</v>
       </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7" t="n">
-        <v>95</v>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7" t="n">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/tables/cor.xlsx
+++ b/tables/cor.xlsx
@@ -443,7 +443,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>0.899</v>
+        <v>0.104</v>
       </c>
       <c r="F2"/>
       <c r="G2"/>
@@ -452,7 +452,7 @@
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2" t="n">
-        <v>83</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -470,7 +470,7 @@
       </c>
       <c r="E3"/>
       <c r="F3" t="n">
-        <v>0.625</v>
+        <v>0.3</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
@@ -478,7 +478,7 @@
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -495,17 +495,17 @@
         <v>13</v>
       </c>
       <c r="E4" t="n">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4" t="n">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="K4" t="n">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="L4"/>
     </row>
@@ -524,16 +524,16 @@
       </c>
       <c r="E5"/>
       <c r="F5" t="n">
-        <v>0.394</v>
+        <v>0.863</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="K5" t="n">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="L5"/>
     </row>
@@ -551,11 +551,11 @@
         <v>13</v>
       </c>
       <c r="E6" t="n">
-        <v>0.233</v>
+        <v>0.278</v>
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>0.615</v>
+        <v>0.934</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -566,7 +566,7 @@
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -584,10 +584,10 @@
       </c>
       <c r="E7"/>
       <c r="F7" t="n">
-        <v>0.763</v>
+        <v>0.275</v>
       </c>
       <c r="G7" t="n">
-        <v>0.203</v>
+        <v>0.554</v>
       </c>
       <c r="H7" t="n">
         <v>0.54</v>
@@ -598,7 +598,7 @@
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7" t="n">
-        <v>97</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/tables/cor.xlsx
+++ b/tables/cor.xlsx
@@ -443,7 +443,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>0.104</v>
+        <v>0.467</v>
       </c>
       <c r="F2"/>
       <c r="G2"/>
@@ -452,7 +452,7 @@
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2" t="n">
-        <v>32</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3">
@@ -470,7 +470,7 @@
       </c>
       <c r="E3"/>
       <c r="F3" t="n">
-        <v>0.3</v>
+        <v>0.575</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
@@ -478,7 +478,7 @@
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3" t="n">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -495,17 +495,17 @@
         <v>13</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.005</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4" t="n">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="K4" t="n">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="L4"/>
     </row>
@@ -524,16 +524,16 @@
       </c>
       <c r="E5"/>
       <c r="F5" t="n">
-        <v>0.863</v>
+        <v>0.79</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5" t="n">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="K5" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L5"/>
     </row>
@@ -551,11 +551,11 @@
         <v>13</v>
       </c>
       <c r="E6" t="n">
-        <v>0.278</v>
+        <v>0.386</v>
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>0.934</v>
+        <v>0.36</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -566,7 +566,7 @@
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6" t="n">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
@@ -584,10 +584,10 @@
       </c>
       <c r="E7"/>
       <c r="F7" t="n">
-        <v>0.275</v>
+        <v>0.238</v>
       </c>
       <c r="G7" t="n">
-        <v>0.554</v>
+        <v>0.383</v>
       </c>
       <c r="H7" t="n">
         <v>0.54</v>
@@ -598,7 +598,7 @@
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7" t="n">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
